--- a/Financials/Yearly/VAR_YR_FIN.xlsx
+++ b/Financials/Yearly/VAR_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E8CD7D-905B-445A-A293-2D1E869F871C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VAR" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,142 +689,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43371</v>
+      </c>
+      <c r="E7" s="2">
         <v>43007</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42643</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42279</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41908</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41544</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41180</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40816</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2668200</v>
+        <v>2919100</v>
       </c>
       <c r="E8" s="3">
-        <v>2621100</v>
+        <v>2619300</v>
       </c>
       <c r="F8" s="3">
+        <v>2593700</v>
+      </c>
+      <c r="G8" s="3">
         <v>2490700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3049800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2942900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2807000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2596700</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1512600</v>
+        <v>1645500</v>
       </c>
       <c r="E9" s="3">
-        <v>1508200</v>
+        <v>1505400</v>
       </c>
       <c r="F9" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="G9" s="3">
         <v>1458600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1748100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3386400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1610700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1460800</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1155600</v>
+        <v>1273600</v>
       </c>
       <c r="E10" s="3">
-        <v>1112900</v>
+        <v>1113900</v>
       </c>
       <c r="F10" s="3">
+        <v>1104700</v>
+      </c>
+      <c r="G10" s="3">
         <v>1032100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1301700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-443500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1196300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1135900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,35 +848,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>233900</v>
+      </c>
+      <c r="E12" s="3">
         <v>210000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>195400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>234800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>416400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>185700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>170700</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,36 +905,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>62900</v>
+        <v>58800</v>
       </c>
       <c r="E14" s="3">
-        <v>19500</v>
+        <v>64800</v>
       </c>
       <c r="F14" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G14" s="3">
         <v>10600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>25100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,9 +965,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,62 +979,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2326300</v>
+        <v>2477500</v>
       </c>
       <c r="E17" s="3">
-        <v>2186100</v>
+        <v>2319100</v>
       </c>
       <c r="F17" s="3">
+        <v>2166900</v>
+      </c>
+      <c r="G17" s="3">
         <v>2095000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2478600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2334000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2212900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2008200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>341900</v>
+        <v>441600</v>
       </c>
       <c r="E18" s="3">
-        <v>435000</v>
+        <v>300200</v>
       </c>
       <c r="F18" s="3">
+        <v>426800</v>
+      </c>
+      <c r="G18" s="3">
         <v>395700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>571200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>608900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>594100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>588500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,143 +1053,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E20" s="3">
         <v>13600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>17200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>432400</v>
+        <v>531600</v>
       </c>
       <c r="E21" s="3">
-        <v>532000</v>
+        <v>390700</v>
       </c>
       <c r="F21" s="3">
+        <v>523800</v>
+      </c>
+      <c r="G21" s="3">
         <v>477700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>644100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>679100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>660300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>643900</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E22" s="3">
         <v>10700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>344800</v>
+        <v>452100</v>
       </c>
       <c r="E23" s="3">
-        <v>440600</v>
+        <v>303100</v>
       </c>
       <c r="F23" s="3">
+        <v>432400</v>
+      </c>
+      <c r="G23" s="3">
         <v>401300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>574500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>612100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>595900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>588700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>87700</v>
+        <v>94000</v>
       </c>
       <c r="E24" s="3">
-        <v>115300</v>
+        <v>77100</v>
       </c>
       <c r="F24" s="3">
+        <v>110100</v>
+      </c>
+      <c r="G24" s="3">
         <v>89900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>170800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>173800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>168900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>180100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,63 +1230,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>257100</v>
+        <v>358100</v>
       </c>
       <c r="E26" s="3">
-        <v>325300</v>
+        <v>226000</v>
       </c>
       <c r="F26" s="3">
+        <v>322300</v>
+      </c>
+      <c r="G26" s="3">
         <v>311400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>403700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>438200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>427000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>408600</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>256400</v>
+        <v>357700</v>
       </c>
       <c r="E27" s="3">
-        <v>324900</v>
+        <v>225300</v>
       </c>
       <c r="F27" s="3">
+        <v>321900</v>
+      </c>
+      <c r="G27" s="3">
         <v>310900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>403700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>438200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>427000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>408600</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,36 +1320,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="E29" s="3">
         <v>-6800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>77400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>100600</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-9700</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1380,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,63 +1410,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-17200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>249600</v>
+        <v>149900</v>
       </c>
       <c r="E33" s="3">
-        <v>402300</v>
+        <v>218500</v>
       </c>
       <c r="F33" s="3">
+        <v>399300</v>
+      </c>
+      <c r="G33" s="3">
         <v>411500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>403700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>438200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>427000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>398900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,68 +1500,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>249600</v>
+        <v>149900</v>
       </c>
       <c r="E35" s="3">
-        <v>402300</v>
+        <v>218500</v>
       </c>
       <c r="F35" s="3">
+        <v>399300</v>
+      </c>
+      <c r="G35" s="3">
         <v>411500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>403700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>438200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>427000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>398900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43371</v>
+      </c>
+      <c r="E38" s="2">
         <v>43007</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42643</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42279</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41908</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41544</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41180</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40816</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1582,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,251 +1596,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>504800</v>
+      </c>
+      <c r="E41" s="3">
         <v>716200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>811400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>845500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>849300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1117900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>704600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>564500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>95300</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>66200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>62700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>49700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19200</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1063400</v>
+        <v>1082100</v>
       </c>
       <c r="E43" s="3">
+        <v>1050100</v>
+      </c>
+      <c r="F43" s="3">
         <v>840100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>770900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>731900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>698300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>691800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>635200</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>438100</v>
+      </c>
+      <c r="E44" s="3">
         <v>417700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>442400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>612600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>572300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>535200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>457900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>410000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>294300</v>
+        <v>124000</v>
       </c>
       <c r="E45" s="3">
+        <v>112800</v>
+      </c>
+      <c r="F45" s="3">
         <v>571900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>460000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>274500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>290700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>266600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>225800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2188400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2296800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2615400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2393000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2494200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2704800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2170500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1854600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>289500</v>
+        <v>178200</v>
       </c>
       <c r="E47" s="3">
+        <v>303300</v>
+      </c>
+      <c r="F47" s="3">
         <v>246300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>141700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>123200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>49700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>274600</v>
+      </c>
+      <c r="E48" s="3">
         <v>510600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>258600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>758400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>338000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>315300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>296600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>285900</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>394700</v>
+      </c>
+      <c r="E49" s="3">
         <v>294200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>328300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>566900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>279500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>248700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>249000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>224800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1893,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,36 +1923,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>399600</v>
+        <v>216800</v>
       </c>
       <c r="E52" s="3">
+        <v>385800</v>
+      </c>
+      <c r="F52" s="3">
         <v>740300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>461000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>122400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>149900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>162600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>133500</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,36 +1983,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3252700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3294400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3814800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3578700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3357300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3468500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2878700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2498800</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +2030,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,116 +2044,129 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>190300</v>
+      </c>
+      <c r="E57" s="3">
         <v>162300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>159200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>202900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>187400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>194300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>180700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>154900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>350000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>379000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>158400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>50000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>56300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>155000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>191300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1527500</v>
+        <v>1149400</v>
       </c>
       <c r="E59" s="3">
+        <v>1507700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1075200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1368700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>964300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>910100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>779700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1339700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1645100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1613400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1376600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1201700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1160600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1236500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1125900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -1997,53 +2174,59 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>286900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>337500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>387500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>450000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>6300</v>
       </c>
       <c r="J61" s="3">
         <v>6300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>324300</v>
+      </c>
+      <c r="E62" s="3">
         <v>127400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>155800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>138200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>151700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>144000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>126200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>122700</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2251,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2281,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,36 +2311,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1668300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1776800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2074300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1867000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1740900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1754600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1369000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1254900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2358,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2385,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2415,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2445,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,36 +2475,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>780400</v>
+      </c>
+      <c r="E72" s="3">
         <v>778600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1069000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2122100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>931200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1010300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>893100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>677500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2535,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2565,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,36 +2595,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1584400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1517600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1740500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1711600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1616400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1713800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1509800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1243900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,68 +2655,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43371</v>
+      </c>
+      <c r="E80" s="2">
         <v>43007</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42643</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42279</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41908</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41544</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41180</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40816</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>249600</v>
+        <v>149900</v>
       </c>
       <c r="E81" s="3">
-        <v>402300</v>
+        <v>218500</v>
       </c>
       <c r="F81" s="3">
+        <v>399300</v>
+      </c>
+      <c r="G81" s="3">
         <v>411500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>403700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>438200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>427000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>398900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2737,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E83" s="3">
         <v>76900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>79800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>68500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>62500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>62900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>61000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>52600</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2794,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2824,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2854,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2884,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2914,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>454900</v>
+      </c>
+      <c r="E89" s="3">
         <v>399100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>356300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>469600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>449000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>455200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>492800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>472800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,35 +2961,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-80400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-91400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-89600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-76300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-61100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-70900</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +3018,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3048,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-184000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-130100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-109200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-210900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-133100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-96300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-122300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-117900</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,8 +3095,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,9 +3122,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3152,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3182,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,88 +3212,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-487000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-392400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-245800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-276700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-595500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>51600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-234700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-311300</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>14200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-211400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-127300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-268600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>413300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>140100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>44200</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/VAR_YR_FIN.xlsx
+++ b/Financials/Yearly/VAR_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E8CD7D-905B-445A-A293-2D1E869F871C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="VAR" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>VAR</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,154 +654,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43735</v>
+      </c>
+      <c r="E7" s="2">
         <v>43371</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43007</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42643</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42279</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41908</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41544</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41180</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40816</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3225100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2919100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2619300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2593700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2490700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3049800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2942900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2807000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2596700</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1854800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1645500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1505400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1489000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1458600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1748100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3386400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1610700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1460800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1370300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1273600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1113900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1104700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1032100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1301700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-443500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1196300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1135900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,38 +826,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>247600</v>
+      </c>
+      <c r="E12" s="3">
         <v>233900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>210000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>195400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>234800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>416400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>185700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>170700</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,69 +889,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>117300</v>
+      </c>
+      <c r="E14" s="3">
         <v>58800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>64800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>25100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>7800</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -980,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2477500</v>
+        <v>2838900</v>
       </c>
       <c r="E17" s="3">
+        <v>2481700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2319100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2166900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2095000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2478600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2334000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2212900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2008200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>441600</v>
+        <v>386200</v>
       </c>
       <c r="E18" s="3">
+        <v>437400</v>
+      </c>
+      <c r="F18" s="3">
         <v>300200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>426800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>395700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>571200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>608900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>594100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>588500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17300</v>
+        <v>43400</v>
       </c>
       <c r="E20" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F20" s="3">
         <v>13600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>17200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>522600</v>
+      </c>
+      <c r="E21" s="3">
         <v>531600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>390700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>523800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>477700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>644100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>679100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>660300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>643900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E22" s="3">
         <v>6800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2600</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>420800</v>
+      </c>
+      <c r="E23" s="3">
         <v>452100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>303100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>432400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>401300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>574500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>612100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>595900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>588700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E24" s="3">
         <v>94000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>77100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>110100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>89900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>170800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>173800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>168900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>180100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>298400</v>
+      </c>
+      <c r="E26" s="3">
         <v>358100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>226000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>322300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>311400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>403700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>438200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>427000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>408600</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>298100</v>
+      </c>
+      <c r="E27" s="3">
         <v>357700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>225300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>321900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>310900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>403700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>438200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>427000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>408600</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,39 +1345,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E29" s="3">
         <v>-207800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-6800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>77400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>100600</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-9700</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17300</v>
+        <v>-43400</v>
       </c>
       <c r="E32" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-13600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-17200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>291900</v>
+      </c>
+      <c r="E33" s="3">
         <v>149900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>218500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>399300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>411500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>403700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>438200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>427000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>398900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>291900</v>
+      </c>
+      <c r="E35" s="3">
         <v>149900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>218500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>399300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>411500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>403700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>438200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>427000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>398900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43735</v>
+      </c>
+      <c r="E38" s="2">
         <v>43371</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43007</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42643</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42279</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41908</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41544</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41180</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40816</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1583,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1597,278 +1647,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>531400</v>
+      </c>
+      <c r="E41" s="3">
         <v>504800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>716200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>811400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>845500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>849300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1117900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>704600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>564500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>39400</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>95300</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>66200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>62700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>49700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19200</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1204600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1082100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1050100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>840100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>770900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>731900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>698300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>691800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>635200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>551500</v>
+      </c>
+      <c r="E44" s="3">
         <v>438100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>417700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>442400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>612600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>572300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>535200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>457900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>410000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E45" s="3">
         <v>124000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>112800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>571900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>460000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>274500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>290700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>266600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>225800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2395400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2188400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2296800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2615400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2393000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2494200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2704800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2170500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1854600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>264200</v>
+      </c>
+      <c r="E47" s="3">
         <v>178200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>303300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>246300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>141700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>123200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>49700</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>311500</v>
+      </c>
+      <c r="E48" s="3">
         <v>274600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>510600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>258600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>758400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>338000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>315300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>296600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>285900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>912900</v>
+      </c>
+      <c r="E49" s="3">
         <v>394700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>294200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>328300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>566900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>279500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>248700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>249000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>224800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E52" s="3">
         <v>216800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>385800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>740300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>461000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>122400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>149900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>162600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>133500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4101700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3252700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3294400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3814800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3578700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3357300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3468500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2878700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2498800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2031,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2045,128 +2139,141 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>248500</v>
+      </c>
+      <c r="E57" s="3">
         <v>190300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>162300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>159200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>202900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>187400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>194300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>180700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>154900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>410000</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>350000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>379000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>158400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>50000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>56300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>155000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>191300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1225500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1149400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1507700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1075200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1368700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>964300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>910100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>779700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1884000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1339700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1645100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1613400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1376600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1201700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1160600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1236500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1125900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2177,56 +2284,62 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>286900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>337500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>387500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>450000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>6300</v>
       </c>
       <c r="K61" s="3">
         <v>6300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L61" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>440100</v>
+      </c>
+      <c r="E62" s="3">
         <v>324300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>127400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>155800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>138200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>151700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>144000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>126200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>122700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2333400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1668300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1776800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2074300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1867000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1740900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1754600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1369000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1254900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2359,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>934000</v>
+      </c>
+      <c r="E72" s="3">
         <v>780400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>778600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1069000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2122100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>931200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1010300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>893100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>677500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1768300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1584400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1517600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1740500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1711600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1616400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1713800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1509800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1243900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43735</v>
+      </c>
+      <c r="E80" s="2">
         <v>43371</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43007</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42643</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42279</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41908</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41544</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41180</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40816</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>291900</v>
+      </c>
+      <c r="E81" s="3">
         <v>149900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>218500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>399300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>411500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>403700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>438200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>427000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>398900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2738,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E83" s="3">
         <v>72700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>76900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>79800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>68500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>62500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>62900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>61000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>371800</v>
+      </c>
+      <c r="E89" s="3">
         <v>454900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>399100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>356300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>469600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>449000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>455200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>492800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>472800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2962,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-59100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-80400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-91400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-89600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-76300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-61100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-70900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-184000</v>
+        <v>-631700</v>
       </c>
       <c r="E94" s="3">
+        <v>-174700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-130100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-109200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-210900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-133100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-96300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-122300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-117900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3096,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3125,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>279200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-487000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-392400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-245800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-276700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-595500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>51600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-234700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-311300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E101" s="3">
         <v>4700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>14200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-211400</v>
+        <v>27700</v>
       </c>
       <c r="E102" s="3">
+        <v>-202100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-127300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-268600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>413300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>140100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>44200</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
